--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C637E60-95F0-4757-8272-8CEDD4B15B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EA8CE-B8B2-4956-B8C1-415BD2CFFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="375" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="BigGaming" sheetId="2" r:id="rId2"/>
     <sheet name="Evolution" sheetId="3" r:id="rId3"/>
-    <sheet name="Pragmatic" sheetId="4" r:id="rId4"/>
-    <sheet name="SA" sheetId="6" r:id="rId5"/>
-    <sheet name="Sexy" sheetId="7" r:id="rId6"/>
+    <sheet name="Pragmatic" sheetId="8" r:id="rId4"/>
+    <sheet name="Sexy" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$B$1:$B$389</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="521">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1258,24 +1257,6 @@
     <t>WM Live Sic Bo</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>*Baccarat:</t>
-  </si>
-  <si>
-    <t>*M Roulette</t>
-  </si>
-  <si>
-    <t>*M Sic Bo</t>
-  </si>
-  <si>
-    <t>*C Roulette</t>
-  </si>
-  <si>
-    <t>*M Xoc Dia</t>
-  </si>
-  <si>
     <t>Lightning Roulette</t>
   </si>
   <si>
@@ -1414,9 +1395,6 @@
     <t>Cash or Crash</t>
   </si>
   <si>
-    <t>Auto Roulette 1</t>
-  </si>
-  <si>
     <t>Baccarat 1</t>
   </si>
   <si>
@@ -1441,42 +1419,6 @@
     <t>Fortune 6 Baccarat</t>
   </si>
   <si>
-    <t>Roulette 1 Azure</t>
-  </si>
-  <si>
-    <t>Roulette 10 Ruby</t>
-  </si>
-  <si>
-    <t>Roulette 11 Dutch</t>
-  </si>
-  <si>
-    <t>Roulette 12 Romanian</t>
-  </si>
-  <si>
-    <t>Roulette 14 Spanish</t>
-  </si>
-  <si>
-    <t>Roulette 3 Macao</t>
-  </si>
-  <si>
-    <t>Roulette 4 Russian</t>
-  </si>
-  <si>
-    <t>Roulette 5 Turkish</t>
-  </si>
-  <si>
-    <t>Roulette 6 Turkish</t>
-  </si>
-  <si>
-    <t>Roulette 7 Italian</t>
-  </si>
-  <si>
-    <t>Roulette 8 Indian</t>
-  </si>
-  <si>
-    <t>Roulette 9 The Club</t>
-  </si>
-  <si>
     <t>Roulette Green</t>
   </si>
   <si>
@@ -1546,15 +1488,6 @@
     <t>Mega Wheel</t>
   </si>
   <si>
-    <t>Power Up Roulette</t>
-  </si>
-  <si>
-    <t>Sweet Bonanza Candyland</t>
-  </si>
-  <si>
-    <t>Azure Roulette</t>
-  </si>
-  <si>
     <t>Baccarat 9</t>
   </si>
   <si>
@@ -1573,9 +1506,6 @@
     <t>Sic Bo</t>
   </si>
   <si>
-    <t>PowerUp Roulette</t>
-  </si>
-  <si>
     <t>Baccarat, Sic Bo, Dragon Tiger</t>
   </si>
   <si>
@@ -1598,13 +1528,91 @@
   </si>
   <si>
     <t>Speed Baccarat F</t>
+  </si>
+  <si>
+    <t>Sweet Bonanza CandyLand</t>
+  </si>
+  <si>
+    <t>PowerUP Roulette</t>
+  </si>
+  <si>
+    <t>Roulette Azure</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>Table3</t>
+  </si>
+  <si>
+    <t>Table4</t>
+  </si>
+  <si>
+    <t>Table5</t>
+  </si>
+  <si>
+    <t>Table6</t>
+  </si>
+  <si>
+    <t>Table7</t>
+  </si>
+  <si>
+    <t>Table8</t>
+  </si>
+  <si>
+    <t>Table9</t>
+  </si>
+  <si>
+    <t>Table10</t>
+  </si>
+  <si>
+    <t>TableC01</t>
+  </si>
+  <si>
+    <t>TableC02</t>
+  </si>
+  <si>
+    <t>TableC03</t>
+  </si>
+  <si>
+    <t>TableC04</t>
+  </si>
+  <si>
+    <t>TableC06</t>
+  </si>
+  <si>
+    <t>Table C05</t>
+  </si>
+  <si>
+    <t>Table C07</t>
+  </si>
+  <si>
+    <t>Table31</t>
+  </si>
+  <si>
+    <t>Table 32</t>
+  </si>
+  <si>
+    <t>Table131</t>
+  </si>
+  <si>
+    <t>Table71</t>
+  </si>
+  <si>
+    <t>Table72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1635,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1994,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D389"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7471,339 +7485,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="D14" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="D15" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="D16" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="D17" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="D18" t="s">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="D19" t="s">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="D20" t="s">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="D21" t="s">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="D22" t="s">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="D23" t="s">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="D24" t="s">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="D25" t="s">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="D26" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="D27" t="s">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7811,459 +7738,218 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04AA25-B7FA-472D-A6A2-C2EABA42F564}">
-  <dimension ref="A1:F90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8A6884-001C-4D75-8C17-13F9358C07DC}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E0EB70-D8D5-4115-B82C-F092E33BDE67}">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8271,53 +7957,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>204</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EA8CE-B8B2-4956-B8C1-415BD2CFFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94882D2-074F-44A0-A042-467673C55C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="1830" windowWidth="22245" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1569,43 +1569,43 @@
     <t>Table9</t>
   </si>
   <si>
+    <t>TableC02</t>
+  </si>
+  <si>
+    <t>TableC03</t>
+  </si>
+  <si>
+    <t>TableC04</t>
+  </si>
+  <si>
+    <t>Table C07</t>
+  </si>
+  <si>
+    <t>Table31</t>
+  </si>
+  <si>
+    <t>Table131</t>
+  </si>
+  <si>
+    <t>Table71</t>
+  </si>
+  <si>
+    <t>Table72</t>
+  </si>
+  <si>
+    <t>Table C06</t>
+  </si>
+  <si>
+    <t>Table C05</t>
+  </si>
+  <si>
+    <t>Table C01</t>
+  </si>
+  <si>
     <t>Table10</t>
   </si>
   <si>
-    <t>TableC01</t>
-  </si>
-  <si>
-    <t>TableC02</t>
-  </si>
-  <si>
-    <t>TableC03</t>
-  </si>
-  <si>
-    <t>TableC04</t>
-  </si>
-  <si>
-    <t>TableC06</t>
-  </si>
-  <si>
-    <t>Table C05</t>
-  </si>
-  <si>
-    <t>Table C07</t>
-  </si>
-  <si>
-    <t>Table31</t>
-  </si>
-  <si>
-    <t>Table 32</t>
-  </si>
-  <si>
-    <t>Table131</t>
-  </si>
-  <si>
-    <t>Table71</t>
-  </si>
-  <si>
-    <t>Table72</t>
+    <t>Table32</t>
   </si>
 </sst>
 </file>
@@ -7741,8 +7741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8A6884-001C-4D75-8C17-13F9358C07DC}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7751,7 +7751,7 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -7962,14 +7962,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7991,13 +7991,13 @@
         <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8005,10 +8005,10 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,42 +8048,42 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94882D2-074F-44A0-A042-467673C55C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A80D56-0B86-4647-9DCF-30E17AD81D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5370" yWindow="1830" windowWidth="22245" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1575,9 +1575,6 @@
     <t>TableC03</t>
   </si>
   <si>
-    <t>TableC04</t>
-  </si>
-  <si>
     <t>Table C07</t>
   </si>
   <si>
@@ -1599,13 +1596,16 @@
     <t>Table C05</t>
   </si>
   <si>
-    <t>Table C01</t>
-  </si>
-  <si>
     <t>Table10</t>
   </si>
   <si>
     <t>Table32</t>
+  </si>
+  <si>
+    <t>TableC01</t>
+  </si>
+  <si>
+    <t>Table C04</t>
   </si>
 </sst>
 </file>
@@ -7962,7 +7962,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7991,13 +7991,13 @@
         <v>499</v>
       </c>
       <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" t="s">
         <v>512</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>513</v>
-      </c>
-      <c r="D2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8005,10 +8005,10 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,12 +8048,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8068,22 +8068,22 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A80D56-0B86-4647-9DCF-30E17AD81D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057E6E9-B5AA-4A42-BF48-3636B4B940C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="1830" windowWidth="22245" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="810" windowWidth="22245" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1575,9 +1575,6 @@
     <t>TableC03</t>
   </si>
   <si>
-    <t>Table C07</t>
-  </si>
-  <si>
     <t>Table31</t>
   </si>
   <si>
@@ -1590,12 +1587,6 @@
     <t>Table72</t>
   </si>
   <si>
-    <t>Table C06</t>
-  </si>
-  <si>
-    <t>Table C05</t>
-  </si>
-  <si>
     <t>Table10</t>
   </si>
   <si>
@@ -1605,14 +1596,23 @@
     <t>TableC01</t>
   </si>
   <si>
-    <t>Table C04</t>
+    <t>TableC06</t>
+  </si>
+  <si>
+    <t>TableC05</t>
+  </si>
+  <si>
+    <t>TableC04</t>
+  </si>
+  <si>
+    <t>TableC07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,6 +1645,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1672,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1691,6 +1698,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7488,7 +7501,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7741,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8A6884-001C-4D75-8C17-13F9358C07DC}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7962,27 +7975,28 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7991,13 +8005,13 @@
         <v>499</v>
       </c>
       <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
         <v>511</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>512</v>
-      </c>
-      <c r="D2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8005,10 +8019,10 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,12 +8062,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8068,26 +8082,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057E6E9-B5AA-4A42-BF48-3636B4B940C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F13FC7-BDC6-4813-8632-4938622E14BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="810" windowWidth="22245" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="135" windowWidth="25050" windowHeight="12615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="525">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1606,13 +1606,25 @@
   </si>
   <si>
     <t>TableC07</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Super Speed Roulette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,6 +1664,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1679,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1704,6 +1724,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7498,10 +7524,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7509,9 +7535,11 @@
     <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>406</v>
       </c>
@@ -7524,8 +7552,12 @@
       <c r="D1" s="5" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>404</v>
       </c>
@@ -7538,8 +7570,14 @@
       <c r="D2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>405</v>
       </c>
@@ -7549,8 +7587,14 @@
       <c r="D3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -7561,7 +7605,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>407</v>
       </c>
@@ -7572,7 +7616,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>490</v>
       </c>
@@ -7583,9 +7627,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
         <v>405</v>
@@ -7594,7 +7638,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>410</v>
       </c>
@@ -7605,7 +7649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -7613,7 +7657,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>412</v>
       </c>
@@ -7621,7 +7665,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>413</v>
       </c>
@@ -7629,7 +7673,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -7637,7 +7681,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>491</v>
       </c>
@@ -7645,17 +7689,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>427</v>
       </c>
@@ -7746,6 +7790,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7974,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F13FC7-BDC6-4813-8632-4938622E14BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C3F5-7CB0-4972-8C1E-354147F0593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2430" yWindow="135" windowWidth="25050" windowHeight="12615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="525">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -7527,7 +7527,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7578,9 +7578,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>405</v>
-      </c>
       <c r="B3" t="s">
         <v>404</v>
       </c>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C3F5-7CB0-4972-8C1E-354147F0593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF3DB2B-3FA2-4169-8D1D-A5AAA51EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="135" windowWidth="25050" windowHeight="12615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="135" windowWidth="25050" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="520">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>Speed Baccarat D</t>
   </si>
   <si>
-    <t>Speed Baccarat E</t>
-  </si>
-  <si>
     <t>Speed Baccarat G</t>
   </si>
   <si>
@@ -1392,9 +1389,6 @@
     <t>Dream Catcher</t>
   </si>
   <si>
-    <t>Cash or Crash</t>
-  </si>
-  <si>
     <t>Baccarat 1</t>
   </si>
   <si>
@@ -1443,9 +1437,6 @@
     <t>Speed Baccarat 15</t>
   </si>
   <si>
-    <t>Speed Baccarat 2</t>
-  </si>
-  <si>
     <t>Speed Baccarat 3</t>
   </si>
   <si>
@@ -1536,9 +1527,6 @@
     <t>PowerUP Roulette</t>
   </si>
   <si>
-    <t>Roulette Azure</t>
-  </si>
-  <si>
     <t>Dice</t>
   </si>
   <si>
@@ -1552,9 +1540,6 @@
   </si>
   <si>
     <t>Table4</t>
-  </si>
-  <si>
-    <t>Table5</t>
   </si>
   <si>
     <t>Table6</t>
@@ -7526,8 +7511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7544,16 +7529,16 @@
         <v>406</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J1" s="10"/>
     </row>
@@ -7562,19 +7547,19 @@
         <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
         <v>414</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7588,7 +7573,7 @@
         <v>409</v>
       </c>
       <c r="J3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,7 +7581,7 @@
         <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
         <v>416</v>
@@ -7607,7 +7592,7 @@
         <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
         <v>417</v>
@@ -7615,10 +7600,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B6" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
         <v>418</v>
@@ -7626,7 +7608,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>405</v>
@@ -7640,7 +7622,7 @@
         <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
         <v>420</v>
@@ -7650,16 +7632,13 @@
       <c r="A9" t="s">
         <v>411</v>
       </c>
-      <c r="D9" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7667,123 +7646,123 @@
         <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -7799,7 +7778,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7813,200 +7792,196 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>415</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8018,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8032,13 +8007,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>406</v>
@@ -8046,102 +8021,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF3DB2B-3FA2-4169-8D1D-A5AAA51EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DD842-4C54-4342-98FA-15C6092814A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="135" windowWidth="25050" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="1005" windowWidth="25050" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="525">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1603,6 +1603,21 @@
   </si>
   <si>
     <t>Super Speed Roulette</t>
+  </si>
+  <si>
+    <t>Table5</t>
+  </si>
+  <si>
+    <t>Cash or Crash</t>
+  </si>
+  <si>
+    <t>Speed Baccarat E</t>
+  </si>
+  <si>
+    <t>Speed Baccarat 2</t>
+  </si>
+  <si>
+    <t>Roulette Azure</t>
   </si>
 </sst>
 </file>
@@ -7511,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,6 +7578,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
       <c r="B3" t="s">
         <v>404</v>
       </c>
@@ -7602,6 +7620,9 @@
       <c r="A6" t="s">
         <v>487</v>
       </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
       <c r="D6" t="s">
         <v>418</v>
       </c>
@@ -7631,6 +7652,9 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7778,7 +7802,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,7 +7913,9 @@
       <c r="A8" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7902,7 +7928,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -7993,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8054,6 +8082,11 @@
         <v>498</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>520</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>499</v>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DD842-4C54-4342-98FA-15C6092814A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29A3E8-0214-4B5C-9713-81C47890908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1005" windowWidth="25050" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="1245" windowWidth="25050" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="528">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1618,6 +1618,15 @@
   </si>
   <si>
     <t>Roulette Azure</t>
+  </si>
+  <si>
+    <t>TableC08</t>
+  </si>
+  <si>
+    <t>TableC09</t>
+  </si>
+  <si>
+    <t>TableC10</t>
   </si>
 </sst>
 </file>
@@ -7526,7 +7535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -8019,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,6 +8156,21 @@
         <v>515</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc.auto\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29A3E8-0214-4B5C-9713-81C47890908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C56D7-FADD-4864-BF42-D90CF8A74E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="1245" windowWidth="25050" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2055" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="536">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1627,13 +1627,37 @@
   </si>
   <si>
     <t>TableC10</t>
+  </si>
+  <si>
+    <t>Bac Bo</t>
+  </si>
+  <si>
+    <t>Prosperity Tree Baccarat</t>
+  </si>
+  <si>
+    <t>Speed Baccarat Z</t>
+  </si>
+  <si>
+    <t>Speed Baccarat 4</t>
+  </si>
+  <si>
+    <t>Baccarat Squeeze</t>
+  </si>
+  <si>
+    <t>Baccarat A</t>
+  </si>
+  <si>
+    <t>Baccarat B</t>
+  </si>
+  <si>
+    <t>Baccarat C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,6 +1705,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1708,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1737,6 +1768,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7533,10 +7565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7561,10 +7593,10 @@
       <c r="D1" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7610,8 +7642,8 @@
       <c r="B4" t="s">
         <v>446</v>
       </c>
-      <c r="D4" t="s">
-        <v>416</v>
+      <c r="D4" s="10" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,8 +7653,8 @@
       <c r="B5" t="s">
         <v>447</v>
       </c>
-      <c r="D5" t="s">
-        <v>417</v>
+      <c r="D5" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7633,7 +7665,7 @@
         <v>521</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7644,7 +7676,7 @@
         <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7655,7 +7687,7 @@
         <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7663,7 +7695,7 @@
         <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>522</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7671,7 +7703,7 @@
         <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7679,7 +7711,7 @@
         <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7687,7 +7719,7 @@
         <v>489</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7695,106 +7727,216 @@
         <v>488</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8030,7 +8172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc.auto\Documents\GitHub\ThirdPartyAutomation\src\test\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\Desktop\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C56D7-FADD-4864-BF42-D90CF8A74E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974CB1D-E438-431F-9D71-4BCAD9BDE231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2055" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="570" windowWidth="19650" windowHeight="14130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="528">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1530,69 +1530,6 @@
     <t>Dice</t>
   </si>
   <si>
-    <t>Table1</t>
-  </si>
-  <si>
-    <t>Table2</t>
-  </si>
-  <si>
-    <t>Table3</t>
-  </si>
-  <si>
-    <t>Table4</t>
-  </si>
-  <si>
-    <t>Table6</t>
-  </si>
-  <si>
-    <t>Table7</t>
-  </si>
-  <si>
-    <t>Table8</t>
-  </si>
-  <si>
-    <t>Table9</t>
-  </si>
-  <si>
-    <t>TableC02</t>
-  </si>
-  <si>
-    <t>TableC03</t>
-  </si>
-  <si>
-    <t>Table31</t>
-  </si>
-  <si>
-    <t>Table131</t>
-  </si>
-  <si>
-    <t>Table71</t>
-  </si>
-  <si>
-    <t>Table72</t>
-  </si>
-  <si>
-    <t>Table10</t>
-  </si>
-  <si>
-    <t>Table32</t>
-  </si>
-  <si>
-    <t>TableC01</t>
-  </si>
-  <si>
-    <t>TableC06</t>
-  </si>
-  <si>
-    <t>TableC05</t>
-  </si>
-  <si>
-    <t>TableC04</t>
-  </si>
-  <si>
-    <t>TableC07</t>
-  </si>
-  <si>
     <t>Changes</t>
   </si>
   <si>
@@ -1605,9 +1542,6 @@
     <t>Super Speed Roulette</t>
   </si>
   <si>
-    <t>Table5</t>
-  </si>
-  <si>
     <t>Cash or Crash</t>
   </si>
   <si>
@@ -1620,15 +1554,6 @@
     <t>Roulette Azure</t>
   </si>
   <si>
-    <t>TableC08</t>
-  </si>
-  <si>
-    <t>TableC09</t>
-  </si>
-  <si>
-    <t>TableC10</t>
-  </si>
-  <si>
     <t>Bac Bo</t>
   </si>
   <si>
@@ -1651,6 +1576,57 @@
   </si>
   <si>
     <t>Baccarat C</t>
+  </si>
+  <si>
+    <t>Extra Sicbo 131</t>
+  </si>
+  <si>
+    <t>Roulette 71</t>
+  </si>
+  <si>
+    <t>Auto Roulette 72</t>
+  </si>
+  <si>
+    <t>Baccarat 4</t>
+  </si>
+  <si>
+    <t>Baccarat C01</t>
+  </si>
+  <si>
+    <t>Baccarat C02</t>
+  </si>
+  <si>
+    <t>Baccarat C03</t>
+  </si>
+  <si>
+    <t>Baccarat C04</t>
+  </si>
+  <si>
+    <t>Baccarat C05</t>
+  </si>
+  <si>
+    <t>Baccarat C06</t>
+  </si>
+  <si>
+    <t>Baccarat C07</t>
+  </si>
+  <si>
+    <t>Baccarat C09</t>
+  </si>
+  <si>
+    <t>Baccarat C10</t>
+  </si>
+  <si>
+    <t>Dragon Tiger 31</t>
+  </si>
+  <si>
+    <t>Dragon Tiger 32</t>
+  </si>
+  <si>
+    <t>Baccarat 10</t>
+  </si>
+  <si>
+    <t>Baccarat C08</t>
   </si>
 </sst>
 </file>
@@ -7567,7 +7543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B397D14-7939-4B63-AABD-1966ADACE430}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -7594,7 +7570,7 @@
         <v>484</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="J1" s="11"/>
     </row>
@@ -7612,10 +7588,10 @@
         <v>414</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7632,7 +7608,7 @@
         <v>409</v>
       </c>
       <c r="J3" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7643,7 +7619,7 @@
         <v>446</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7654,7 +7630,7 @@
         <v>447</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7662,7 +7638,7 @@
         <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
         <v>416</v>
@@ -7670,7 +7646,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
         <v>405</v>
@@ -7711,7 +7687,7 @@
         <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7817,7 +7793,7 @@
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
@@ -7827,7 +7803,7 @@
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="10" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
@@ -7837,7 +7813,7 @@
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="10" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
@@ -7897,17 +7873,17 @@
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
@@ -7932,7 +7908,7 @@
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
@@ -8065,7 +8041,7 @@
         <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8080,7 +8056,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8172,15 +8148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8199,119 +8175,174 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" t="s">
-        <v>507</v>
+      <c r="A2" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D3" t="s">
-        <v>508</v>
+      <c r="A3" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>497</v>
-      </c>
+      <c r="A4" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>498</v>
-      </c>
+      <c r="A5" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>520</v>
-      </c>
+      <c r="A6" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>499</v>
-      </c>
+      <c r="A7" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>500</v>
-      </c>
+      <c r="A8" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>501</v>
-      </c>
+      <c r="A9" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>502</v>
-      </c>
+      <c r="A10" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>509</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>511</v>
-      </c>
+      <c r="A12" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>503</v>
-      </c>
+      <c r="A13" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>504</v>
-      </c>
+      <c r="A14" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>514</v>
-      </c>
+      <c r="A15" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>527</v>
       </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/Excel/tableList.xlsx
+++ b/src/test/resources/Excel/tableList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kar.par\Documents\GitHub\Desktop\ThirdPartyAutomation\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974CB1D-E438-431F-9D71-4BCAD9BDE231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C778E-81F7-49F9-8A13-897041792818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="570" windowWidth="19650" windowHeight="14130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Evolution" sheetId="3" r:id="rId3"/>
     <sheet name="Pragmatic" sheetId="8" r:id="rId4"/>
     <sheet name="Sexy" sheetId="7" r:id="rId5"/>
+    <sheet name="AllBet" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$B$1:$B$389</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="586">
   <si>
     <t>3RD PARTY</t>
   </si>
@@ -1627,13 +1628,187 @@
   </si>
   <si>
     <t>Baccarat C08</t>
+  </si>
+  <si>
+    <t>Bull Bull</t>
+  </si>
+  <si>
+    <t>HiLo</t>
+  </si>
+  <si>
+    <t>Classic PokDeng</t>
+  </si>
+  <si>
+    <t>Two Sides PokDeng</t>
+  </si>
+  <si>
+    <t>Casino War</t>
+  </si>
+  <si>
+    <t>Fish Prawn Crab</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B501</t>
+  </si>
+  <si>
+    <t>Dragon Tiger D501</t>
+  </si>
+  <si>
+    <t>SicBo S001</t>
+  </si>
+  <si>
+    <t>Roulette R001</t>
+  </si>
+  <si>
+    <t>Bull Bull BB002</t>
+  </si>
+  <si>
+    <t>HiLo S001</t>
+  </si>
+  <si>
+    <t>Classic PokDeng P001</t>
+  </si>
+  <si>
+    <t>Two Sides PokDeng P001</t>
+  </si>
+  <si>
+    <t>Casino War CW001</t>
+  </si>
+  <si>
+    <t>Fish Prawn Crab F001</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B502</t>
+  </si>
+  <si>
+    <t>Dragon Tiger D001</t>
+  </si>
+  <si>
+    <t>SicBo S201</t>
+  </si>
+  <si>
+    <t>Roulette R301</t>
+  </si>
+  <si>
+    <t>Bull Bull BB201</t>
+  </si>
+  <si>
+    <t>HiLo S201</t>
+  </si>
+  <si>
+    <t>Classic PokDeng P201</t>
+  </si>
+  <si>
+    <t>Two Sides PokDeng P201</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B503</t>
+  </si>
+  <si>
+    <t>Dragon Tiger D201</t>
+  </si>
+  <si>
+    <t>Roulette R201</t>
+  </si>
+  <si>
+    <t>Bull Bull BB001</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B504</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B505</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B506</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B301</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B302</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B303</t>
+  </si>
+  <si>
+    <t>Sexy Baccarat B304</t>
+  </si>
+  <si>
+    <t>Baccarat B001</t>
+  </si>
+  <si>
+    <t>Baccarat B002</t>
+  </si>
+  <si>
+    <t>Baccarat B003</t>
+  </si>
+  <si>
+    <t>Baccarat B004</t>
+  </si>
+  <si>
+    <t>Baccarat B201</t>
+  </si>
+  <si>
+    <t>Baccarat B202</t>
+  </si>
+  <si>
+    <t>VIP Baccarat V901</t>
+  </si>
+  <si>
+    <t>VIP Baccarat V902</t>
+  </si>
+  <si>
+    <t>VIP Baccarat V911</t>
+  </si>
+  <si>
+    <t>VIP Baccarat V912</t>
+  </si>
+  <si>
+    <t>Classic Baccarat B018</t>
+  </si>
+  <si>
+    <t>Classic Baccarat B019</t>
+  </si>
+  <si>
+    <t>Classic Baccarat B219</t>
+  </si>
+  <si>
+    <t>See Card Baccarat C001</t>
+  </si>
+  <si>
+    <t>See Card Baccarat C002</t>
+  </si>
+  <si>
+    <t>See Card Baccarat C201</t>
+  </si>
+  <si>
+    <t>Insurance Baccarat IB001</t>
+  </si>
+  <si>
+    <t>Insurance Baccarat IB002</t>
+  </si>
+  <si>
+    <t>Quick Baccarat Q001</t>
+  </si>
+  <si>
+    <t>Quick Baccarat Q002</t>
+  </si>
+  <si>
+    <t>Quick Baccarat Q003</t>
+  </si>
+  <si>
+    <t>Quick Baccarat Q202</t>
+  </si>
+  <si>
+    <t>Quick Baccarat Q203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +1863,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1715,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,6 +1928,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7569,10 +7756,10 @@
       <c r="D1" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8148,7 +8335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C1E1-6152-495F-801F-3660D0C2A57D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -8349,4 +8536,563 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716ABC46-113B-4886-BB66-3268009680EA}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>